--- a/Datensätze.xlsx
+++ b/Datensätze.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaky\Documents\GitHub\topic03_team03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F0F63-3AEF-4847-9C4A-FE563B7D70AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4769DC29-B1DA-401D-B467-45DB3B112C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4035" windowWidth="29040" windowHeight="16440" xr2:uid="{8B37132F-EFE7-480D-900D-1B7FAAC64172}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{8B37132F-EFE7-480D-900D-1B7FAAC64172}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>Cor_Ctrl</t>
   </si>
@@ -390,6 +390,42 @@
   </si>
   <si>
     <t>Basiert größtenteils auf</t>
+  </si>
+  <si>
+    <t>Sel_Crit_compare</t>
+  </si>
+  <si>
+    <t>Zusammenfassung der expliziten Werte für das Selektieren von RNA-Dependence</t>
+  </si>
+  <si>
+    <t>delta_mu, Ctrl/Rnase_heightprop, overlap, Ctrl/Rnase_heightprop_compare</t>
+  </si>
+  <si>
+    <t>5990 x 6</t>
+  </si>
+  <si>
+    <t>Chunk 29</t>
+  </si>
+  <si>
+    <t>Chunk 31</t>
+  </si>
+  <si>
+    <t>RDPs</t>
+  </si>
+  <si>
+    <t>non-RDPs</t>
+  </si>
+  <si>
+    <t>706 x 6</t>
+  </si>
+  <si>
+    <t>5284 x 6</t>
+  </si>
+  <si>
+    <t>Alle Proteine, bei denen alle drei RDP-Selektionskriterien erfüllt sind</t>
+  </si>
+  <si>
+    <t>Alle Proteine, bei denen mind. Ein RDP-Selektionskriterium nicht erfüllt ist</t>
   </si>
 </sst>
 </file>
@@ -515,39 +551,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -570,99 +627,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -703,6 +675,18 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -715,18 +699,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -735,25 +707,100 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="Tabellenformat 4" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tabellenformat 1" pivot="0" count="2" xr9:uid="{E1FB2E0F-DDDC-4352-81BC-D47BC2ED28D1}">
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+    <tableStyle name="Tabellenformat 1" pivot="0" count="1" xr9:uid="{E1FB2E0F-DDDC-4352-81BC-D47BC2ED28D1}">
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{780EF935-F086-438D-8EE5-27A3CF2FBB37}">
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 3" pivot="0" count="2" xr9:uid="{C176F36D-E514-40F5-9641-54E93AD8A793}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 4" pivot="0" count="2" xr9:uid="{D0AAF7E0-E999-45FF-A181-389482314CCA}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 5" pivot="0" count="2" xr9:uid="{DB4CB0EF-3E61-497D-B98E-96227886C680}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -768,20 +815,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4474F07C-0AFB-4467-A581-FD133DCD8460}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="3" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="A1:H26" xr:uid="{4474F07C-0AFB-4467-A581-FD133DCD8460}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4474F07C-0AFB-4467-A581-FD133DCD8460}" name="Tabelle1" displayName="Tabelle1" ref="A1:H29" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:H29" xr:uid="{4474F07C-0AFB-4467-A581-FD133DCD8460}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="C1:C26"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F024DB19-874E-47C7-90B4-033E07BF1C11}" name="#" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B4C1A5CE-7FF4-4789-9585-BA3265B04AE6}" name="Alter Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{BA099E84-7DB1-47A9-AFFC-86060E877EAE}" name="Neuer Name" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F1BB163F-FBD6-4B13-938B-7C73A77AA8D9}" name="Beschreibung" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{39D13F45-2BF5-4B22-87C9-2FF29D5FF34E}" name="Variablen" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{AD7A287A-0355-4B0C-A08B-C2B92F1131D9}" name="Dimensionen" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F024DB19-874E-47C7-90B4-033E07BF1C11}" name="#" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B4C1A5CE-7FF4-4789-9585-BA3265B04AE6}" name="Alter Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BA099E84-7DB1-47A9-AFFC-86060E877EAE}" name="Neuer Name" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F1BB163F-FBD6-4B13-938B-7C73A77AA8D9}" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{39D13F45-2BF5-4B22-87C9-2FF29D5FF34E}" name="Variablen" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AD7A287A-0355-4B0C-A08B-C2B92F1131D9}" name="Dimensionen" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{D8303B98-0CE1-4191-9904-F69563009C1B}" name="Herkunft " dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{9A45AEE9-DEB1-4ABE-B568-AB73E0C9BABB}" name="Basiert größtenteils auf" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{9A45AEE9-DEB1-4ABE-B568-AB73E0C9BABB}" name="Basiert größtenteils auf" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tabellenformat 3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,707 +1131,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E405F456-5FD2-4C17-9776-74AFC237F09A}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>14</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>14</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
